--- a/data/paper/factories/pulp_factory-HC.xlsx
+++ b/data/paper/factories/pulp_factory-HC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\paper\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0ECAA-8BB3-1E45-83EB-C4D12D4AB892}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="465" windowWidth="19740" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="1200" yWindow="460" windowWidth="19740" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -183,9 +184,6 @@
     <t>paper_pulping</t>
   </si>
   <si>
-    <t>wet hog fuel</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -223,12 +221,15 @@
   </si>
   <si>
     <t>outflows</t>
+  </si>
+  <si>
+    <t>hog fuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -308,8 +309,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,21 +621,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -651,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -665,7 +666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -680,7 +681,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -694,7 +695,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -708,7 +709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -722,7 +723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -736,7 +737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -750,33 +751,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -785,29 +786,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -842,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -869,7 +870,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -880,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>28</v>
@@ -895,7 +896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -921,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -947,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -973,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1140,22 +1141,22 @@
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1166,24 +1167,24 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>45</v>
@@ -1207,67 +1208,67 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E17" s="5"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E21" s="5"/>
       <c r="G21" s="1"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E22" s="5"/>
       <c r="G22" s="1"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E23" s="5"/>
       <c r="G23" s="1"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G24" s="1"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G25" s="1"/>
       <c r="H25" s="5"/>
     </row>
@@ -1277,21 +1278,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1335,12 +1336,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1350,20 +1351,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1402,16 +1403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1422,37 +1423,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/paper/factories/pulp_factory-HC.xlsx
+++ b/data/paper/factories/pulp_factory-HC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0ECAA-8BB3-1E45-83EB-C4D12D4AB892}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AF2E93-BD86-F54F-98AF-84C7281A9155}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="460" windowWidth="19740" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="67">
   <si>
     <t>Inflow</t>
   </si>
@@ -214,9 +214,6 @@
     <t>simple_heat</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>inflows</t>
   </si>
   <si>
@@ -224,6 +221,15 @@
   </si>
   <si>
     <t>hog fuel</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>CO2__calcination</t>
   </si>
 </sst>
 </file>
@@ -787,10 +793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>28</v>
@@ -1141,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>52</v>
@@ -1158,7 +1164,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
@@ -1167,13 +1173,13 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>52</v>
@@ -1184,93 +1190,223 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E17" s="5"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E20" s="5"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E21" s="5"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E22" s="5"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="5"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="5"/>
       <c r="G25" s="1"/>
       <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+      <c r="H30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/paper/factories/pulp_factory-HC.xlsx
+++ b/data/paper/factories/pulp_factory-HC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/paper/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AF2E93-BD86-F54F-98AF-84C7281A9155}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E8AA4B-F9BC-A640-A9D9-DC169630B354}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="19740" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
   <si>
     <t>Inflow</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>CO2__calcination</t>
+  </si>
+  <si>
+    <t>CCS power</t>
+  </si>
+  <si>
+    <t>duplicate_power</t>
   </si>
 </sst>
 </file>
@@ -628,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="171" zoomScaleNormal="278" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,6 +792,20 @@
         <v>60</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -793,10 +813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,28 +1158,28 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1173,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>51</v>
@@ -1190,7 +1210,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>45</v>
@@ -1199,7 +1219,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>51</v>
@@ -1225,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>51</v>
@@ -1242,16 +1262,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>51</v>
@@ -1277,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>51</v>
@@ -1303,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>51</v>
@@ -1320,70 +1340,113 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" s="5"/>
-      <c r="G22" s="1"/>
-    </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E25" s="5"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5"/>
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E26" s="5"/>
@@ -1401,12 +1464,17 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="5"/>
       <c r="G29" s="1"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G30" s="1"/>
       <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+      <c r="H31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
